--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spp1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spp1-Itga9.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H2">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I2">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J2">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N2">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O2">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P2">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q2">
-        <v>28.93277065883111</v>
+        <v>36.21670609268266</v>
       </c>
       <c r="R2">
-        <v>260.39493592948</v>
+        <v>325.950354834144</v>
       </c>
       <c r="S2">
-        <v>0.0005579929667126883</v>
+        <v>0.000444239220879165</v>
       </c>
       <c r="T2">
-        <v>0.0005771498934022548</v>
+        <v>0.0004572734902985825</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H3">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I3">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J3">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>14.827407</v>
       </c>
       <c r="O3">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P3">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q3">
-        <v>56.87727260864366</v>
+        <v>68.273754370486</v>
       </c>
       <c r="R3">
-        <v>511.895453477793</v>
+        <v>614.463789334374</v>
       </c>
       <c r="S3">
-        <v>0.001096926335042729</v>
+        <v>0.0008374554927889514</v>
       </c>
       <c r="T3">
-        <v>0.0011345858372907</v>
+        <v>0.0008620269849192049</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H4">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I4">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J4">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N4">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O4">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P4">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q4">
-        <v>94.28653430296954</v>
+        <v>153.2980263173247</v>
       </c>
       <c r="R4">
-        <v>848.5788087267258</v>
+        <v>1379.682236855922</v>
       </c>
       <c r="S4">
-        <v>0.001818395604664055</v>
+        <v>0.001880375194785629</v>
       </c>
       <c r="T4">
-        <v>0.001880824476297335</v>
+        <v>0.001935546633385581</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H5">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I5">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J5">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N5">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O5">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P5">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q5">
-        <v>17.27991863554183</v>
+        <v>6.790238702099</v>
       </c>
       <c r="R5">
-        <v>103.679511813251</v>
+        <v>40.741432212594</v>
       </c>
       <c r="S5">
-        <v>0.0003332578541369946</v>
+        <v>8.329002485439924E-05</v>
       </c>
       <c r="T5">
-        <v>0.0002297994735474468</v>
+        <v>5.715587245516454E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H6">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I6">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J6">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N6">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O6">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P6">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q6">
-        <v>84.89539037939053</v>
+        <v>195.77091758609</v>
       </c>
       <c r="R6">
-        <v>764.0585134145149</v>
+        <v>1761.93825827481</v>
       </c>
       <c r="S6">
-        <v>0.001637279446777385</v>
+        <v>0.002401353664706005</v>
       </c>
       <c r="T6">
-        <v>0.00169349026699082</v>
+        <v>0.002471810952504999</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H7">
         <v>182.133932</v>
       </c>
       <c r="I7">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J7">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N7">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O7">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P7">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q7">
-        <v>152.6387583098489</v>
+        <v>159.1727524090382</v>
       </c>
       <c r="R7">
-        <v>1373.74882478864</v>
+        <v>1432.554771681344</v>
       </c>
       <c r="S7">
-        <v>0.002943767625609573</v>
+        <v>0.001952435412939721</v>
       </c>
       <c r="T7">
-        <v>0.003044832592301096</v>
+        <v>0.00200972114549144</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H8">
         <v>182.133932</v>
       </c>
       <c r="I8">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J8">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>14.827407</v>
       </c>
       <c r="O8">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P8">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q8">
         <v>300.0637709193693</v>
       </c>
       <c r="R8">
-        <v>2700.573938274324</v>
+        <v>2700.573938274325</v>
       </c>
       <c r="S8">
-        <v>0.005786983753219979</v>
+        <v>0.003680624501470531</v>
       </c>
       <c r="T8">
-        <v>0.005985661568403322</v>
+        <v>0.00378861643268483</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H9">
         <v>182.133932</v>
       </c>
       <c r="I9">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J9">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N9">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O9">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P9">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q9">
-        <v>497.4214080997963</v>
+        <v>673.7462188128636</v>
       </c>
       <c r="R9">
-        <v>4476.792672898167</v>
+        <v>6063.715969315772</v>
       </c>
       <c r="S9">
-        <v>0.009593192801508957</v>
+        <v>0.008264266069635259</v>
       </c>
       <c r="T9">
-        <v>0.009922544786534985</v>
+        <v>0.00850674504367136</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H10">
         <v>182.133932</v>
       </c>
       <c r="I10">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J10">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N10">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O10">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P10">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q10">
-        <v>91.16255595864466</v>
+        <v>29.84316080434067</v>
       </c>
       <c r="R10">
-        <v>546.975335751868</v>
+        <v>179.058964826044</v>
       </c>
       <c r="S10">
-        <v>0.001758147038605485</v>
+        <v>0.0003660604161616597</v>
       </c>
       <c r="T10">
-        <v>0.001212338310635762</v>
+        <v>0.0002512005788639788</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H11">
         <v>182.133932</v>
       </c>
       <c r="I11">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J11">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N11">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O11">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P11">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q11">
-        <v>447.8771537832243</v>
+        <v>860.4149619260068</v>
       </c>
       <c r="R11">
-        <v>4030.894384049019</v>
+        <v>7743.734657334061</v>
       </c>
       <c r="S11">
-        <v>0.00863768992984624</v>
+        <v>0.01055397117950527</v>
       </c>
       <c r="T11">
-        <v>0.008934237740705073</v>
+        <v>0.01086363159968653</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H12">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I12">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J12">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N12">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O12">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P12">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q12">
-        <v>2875.508460959502</v>
+        <v>1367.364655794387</v>
       </c>
       <c r="R12">
-        <v>25879.57614863552</v>
+        <v>12306.28190214949</v>
       </c>
       <c r="S12">
-        <v>0.05545661408851231</v>
+        <v>0.01677228756787837</v>
       </c>
       <c r="T12">
-        <v>0.05736054183298555</v>
+        <v>0.01726439745972229</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H13">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I13">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J13">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>14.827407</v>
       </c>
       <c r="O13">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P13">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q13">
-        <v>5652.796980662982</v>
+        <v>2577.68109572648</v>
       </c>
       <c r="R13">
-        <v>50875.17282596684</v>
+        <v>23199.12986153832</v>
       </c>
       <c r="S13">
-        <v>0.1090189734905981</v>
+        <v>0.03161819958750596</v>
       </c>
       <c r="T13">
-        <v>0.1127617957258586</v>
+        <v>0.0325458982521238</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H14">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I14">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J14">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N14">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O14">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P14">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q14">
-        <v>9370.748841849447</v>
+        <v>5787.779331806729</v>
       </c>
       <c r="R14">
-        <v>84336.73957664502</v>
+        <v>52090.01398626056</v>
       </c>
       <c r="S14">
-        <v>0.1807228214760371</v>
+        <v>0.07099371694384543</v>
       </c>
       <c r="T14">
-        <v>0.1869273689321536</v>
+        <v>0.07307671905226046</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H15">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I15">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J15">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N15">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O15">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P15">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q15">
-        <v>1717.379673972771</v>
+        <v>256.3660091532522</v>
       </c>
       <c r="R15">
-        <v>10304.27804383662</v>
+        <v>1538.196054919513</v>
       </c>
       <c r="S15">
-        <v>0.03312112035698314</v>
+        <v>0.003144621597411142</v>
       </c>
       <c r="T15">
-        <v>0.02283881963126233</v>
+        <v>0.002157924568465221</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H16">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I16">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J16">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N16">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O16">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P16">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q16">
-        <v>8437.40187246415</v>
+        <v>7391.346762861471</v>
       </c>
       <c r="R16">
-        <v>75936.61685217735</v>
+        <v>66522.12086575324</v>
       </c>
       <c r="S16">
-        <v>0.1627224353201183</v>
+        <v>0.09066330104064134</v>
       </c>
       <c r="T16">
-        <v>0.1683089963524912</v>
+        <v>0.0933234216168453</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H17">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I17">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J17">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N17">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O17">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P17">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q17">
-        <v>208.1188297603134</v>
+        <v>456.0985033602453</v>
       </c>
       <c r="R17">
-        <v>1248.71297856188</v>
+        <v>2736.591020161472</v>
       </c>
       <c r="S17">
-        <v>0.004013747753925679</v>
+        <v>0.005594568519246037</v>
       </c>
       <c r="T17">
-        <v>0.002767698073291945</v>
+        <v>0.003839144546861254</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H18">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I18">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J18">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>14.827407</v>
       </c>
       <c r="O18">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P18">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q18">
-        <v>409.1288578909806</v>
+        <v>859.811963779202</v>
       </c>
       <c r="R18">
-        <v>2454.773147345883</v>
+        <v>5158.871782675212</v>
       </c>
       <c r="S18">
-        <v>0.007890396252551123</v>
+        <v>0.01054657471925726</v>
       </c>
       <c r="T18">
-        <v>0.005440858729683913</v>
+        <v>0.007237345414970087</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H19">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I19">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J19">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N19">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O19">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P19">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q19">
-        <v>678.2206727685177</v>
+        <v>1930.573150205339</v>
       </c>
       <c r="R19">
-        <v>4069.324036611106</v>
+        <v>11583.43890123204</v>
       </c>
       <c r="S19">
-        <v>0.01308005962327251</v>
+        <v>0.02368068233214435</v>
       </c>
       <c r="T19">
-        <v>0.009019414780729002</v>
+        <v>0.01625032603115884</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H20">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I20">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J20">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N20">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O20">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P20">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q20">
-        <v>124.2976860802203</v>
+        <v>85.513511404393</v>
       </c>
       <c r="R20">
-        <v>497.1907443208811</v>
+        <v>342.054045617572</v>
       </c>
       <c r="S20">
-        <v>0.00239718606383294</v>
+        <v>0.001048920782130555</v>
       </c>
       <c r="T20">
-        <v>0.001101993723730084</v>
+        <v>0.0004798652463191403</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H21">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I21">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J21">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N21">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O21">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P21">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q21">
-        <v>610.6684183877442</v>
+        <v>2465.45951152963</v>
       </c>
       <c r="R21">
-        <v>3664.010510326465</v>
+        <v>14792.75706917778</v>
       </c>
       <c r="S21">
-        <v>0.01177725723097716</v>
+        <v>0.03024167382058906</v>
       </c>
       <c r="T21">
-        <v>0.008121061448108799</v>
+        <v>0.02075265621233609</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H22">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I22">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J22">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N22">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O22">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P22">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q22">
-        <v>2049.561676537587</v>
+        <v>4394.914516809161</v>
       </c>
       <c r="R22">
-        <v>18446.05508883828</v>
+        <v>39554.23065128244</v>
       </c>
       <c r="S22">
-        <v>0.03952753138776106</v>
+        <v>0.05390864082949556</v>
       </c>
       <c r="T22">
-        <v>0.04088458437263279</v>
+        <v>0.05549035562544642</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H23">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I23">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J23">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>14.827407</v>
       </c>
       <c r="O23">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P23">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q23">
-        <v>4029.115620459097</v>
+        <v>8285.05257855397</v>
       </c>
       <c r="R23">
-        <v>36262.04058413187</v>
+        <v>74565.47320698573</v>
       </c>
       <c r="S23">
-        <v>0.07770490440749353</v>
+        <v>0.1016256225240583</v>
       </c>
       <c r="T23">
-        <v>0.08037265695269832</v>
+        <v>0.104607384785556</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H24">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I24">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J24">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N24">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O24">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P24">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q24">
-        <v>6679.141434452587</v>
+        <v>18602.78843515053</v>
       </c>
       <c r="R24">
-        <v>60112.27291007328</v>
+        <v>167425.0959163548</v>
       </c>
       <c r="S24">
-        <v>0.1288128948330179</v>
+        <v>0.2281844245984843</v>
       </c>
       <c r="T24">
-        <v>0.1332352788596926</v>
+        <v>0.2348795049240019</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H25">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I25">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J25">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N25">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O25">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P25">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q25">
-        <v>1224.088056643968</v>
+        <v>823.9986973990372</v>
       </c>
       <c r="R25">
-        <v>7344.528339863811</v>
+        <v>4943.992184394223</v>
       </c>
       <c r="S25">
-        <v>0.02360757406535679</v>
+        <v>0.01010728414674777</v>
       </c>
       <c r="T25">
-        <v>0.01627871038778655</v>
+        <v>0.006935892318071624</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H26">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I26">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J26">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N26">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O26">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P26">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q26">
-        <v>6013.884418054768</v>
+        <v>23756.89399986582</v>
       </c>
       <c r="R26">
-        <v>54124.95976249291</v>
+        <v>213812.0459987924</v>
       </c>
       <c r="S26">
-        <v>0.1159828502934381</v>
+        <v>0.2914054098128381</v>
       </c>
       <c r="T26">
-        <v>0.1199647552507858</v>
+        <v>0.2999554352118999</v>
       </c>
     </row>
   </sheetData>
